--- a/data/s_vals/2023/hill_garrett.xlsx
+++ b/data/s_vals/2023/hill_garrett.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4798548413538308</v>
+        <v>0.06328177979961902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.065486679010246</v>
+        <v>7.035200475096886</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7180900571223114</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.081343883389729</v>
+        <v>10.05705581352019</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2051611557409778</v>
+        <v>0.006876353814593728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005019212125022099</v>
+        <v>2.220651329265522e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.023824405712843</v>
+        <v>9.570906078440121</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3167448269367641</v>
+        <v>0.02258322285507441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02188399973699395</v>
+        <v>0.0001537489499301437</v>
       </c>
       <c r="D5" t="n">
-        <v>4.554528715529886</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.712301319720099</v>
+        <v>164.3098868293287</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/hill_garrett.xlsx
+++ b/data/s_vals/2023/hill_garrett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>7.035200475096886</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>10.05705581352019</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>9.570906078440121</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>164.3098868293287</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/hill_garrett.xlsx
+++ b/data/s_vals/2023/hill_garrett.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06328177979961902</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E2" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.035200475096886</v>
+        <v>10.69140994080654</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1554434735375247</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D3" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.05705581352019</v>
+        <v>14.15606796568992</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006876353814593728</v>
+        <v>0.003208871385164791</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220651329265522e-06</v>
+        <v>5.461030343489881e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E4" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.570906078440121</v>
+        <v>13.73342407323148</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02258322285507441</v>
+        <v>0.01293466051926884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001537489499301437</v>
+        <v>6.240767534437808e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>157.8057217802531</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E5" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>164.3098868293287</v>
+        <v>271.5258278882915</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
